--- a/Server/破碎世界服务端/ResCfg/ShopItem.xlsx
+++ b/Server/破碎世界服务端/ResCfg/ShopItem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xiangmmu\PoSuiShiJie\Assets\Resources\ResCfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58383EFC-26E0-4E5F-A08D-15CD5942B459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D29FCCC-F98A-4281-88DB-FF7B3B35821D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="2680" windowWidth="18030" windowHeight="11970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,10 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回血的药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>血药瓶</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,6 +188,70 @@
   </si>
   <si>
     <t>equip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后可提升攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级强化材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复少量生命值，迅速治疗伤势。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星辰馈赠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开后可获得大量稀有道具，尊贵象征。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘福袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>132</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 使用后随机获得一些道具，充满惊喜。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xingchenkuizeng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shenmifudai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天地书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiandishu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hufu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通护符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -290,8 +350,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C40002EB-1CC3-46F7-8FA4-C840EB7808C8}" name="表2" displayName="表2" ref="A1:J8" tableType="xml" totalsRowShown="0" connectionId="4">
-  <autoFilter ref="A1:J8" xr:uid="{C40002EB-1CC3-46F7-8FA4-C840EB7808C8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C40002EB-1CC3-46F7-8FA4-C840EB7808C8}" name="表2" displayName="表2" ref="A1:J12" tableType="xml" totalsRowShown="0" connectionId="4">
+  <autoFilter ref="A1:J12" xr:uid="{C40002EB-1CC3-46F7-8FA4-C840EB7808C8}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{18640F8B-D713-40C0-BEB6-F36416E45EE6}" uniqueName="ID" name="ID">
       <xmlColumnPr mapId="6" xpath="/root/item/@ID" xmlDataType="integer"/>
@@ -591,17 +651,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.08203125" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="26.58203125" customWidth="1"/>
+    <col min="3" max="3" width="29.08203125" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="21.5" customWidth="1"/>
     <col min="6" max="6" width="9.83203125" customWidth="1"/>
@@ -648,10 +708,10 @@
         <v>40001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1">
         <v>100</v>
@@ -666,7 +726,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -692,7 +752,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -718,7 +778,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -735,7 +795,7 @@
         <v>1000</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -744,7 +804,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -761,7 +821,7 @@
         <v>1000</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>25</v>
@@ -770,7 +830,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -796,33 +856,134 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>40007</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>51</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>40008</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
-        <v>36</v>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>40009</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>40010</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>40011</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
